--- a/Excel-XLSX/UN-NAM.xlsx
+++ b/Excel-XLSX/UN-NAM.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="574">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="579">
   <si>
     <t>﻿"page"</t>
   </si>
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>yAZD18</t>
+    <t>N8Wi39</t>
   </si>
   <si>
     <t>1991</t>
@@ -1710,10 +1710,10 @@
     <t>366</t>
   </si>
   <si>
-    <t>4549</t>
-  </si>
-  <si>
-    <t>1071</t>
+    <t>4655</t>
+  </si>
+  <si>
+    <t>1208</t>
   </si>
   <si>
     <t>367</t>
@@ -1734,10 +1734,25 @@
     <t>372</t>
   </si>
   <si>
+    <t>Stateless</t>
+  </si>
+  <si>
+    <t>STA</t>
+  </si>
+  <si>
+    <t>XXA</t>
+  </si>
+  <si>
+    <t>14796</t>
+  </si>
+  <si>
     <t>373</t>
   </si>
   <si>
     <t>374</t>
+  </si>
+  <si>
+    <t>375</t>
   </si>
 </sst>
 </file>
@@ -2122,7 +2137,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V375"/>
+  <dimension ref="A1:V376"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -26787,7 +26802,7 @@
         <v>31</v>
       </c>
       <c r="N363" s="2" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="O363" s="2" t="s">
         <v>33</v>
@@ -26805,7 +26820,7 @@
         <v>33</v>
       </c>
       <c r="T363" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="U363" s="1" t="s">
         <v>34</v>
@@ -26855,10 +26870,10 @@
         <v>31</v>
       </c>
       <c r="N364" s="2" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="O364" s="2" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="P364" s="2" t="s">
         <v>33</v>
@@ -26923,10 +26938,10 @@
         <v>31</v>
       </c>
       <c r="N365" s="2" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="O365" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="P365" s="2" t="s">
         <v>33</v>
@@ -27213,7 +27228,7 @@
         <v>33</v>
       </c>
       <c r="T369" s="2" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="U369" s="1" t="s">
         <v>34</v>
@@ -27331,10 +27346,10 @@
         <v>31</v>
       </c>
       <c r="N371" s="2" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="O371" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="P371" s="2" t="s">
         <v>33</v>
@@ -27443,16 +27458,16 @@
         <v>559</v>
       </c>
       <c r="F373" s="2" t="s">
-        <v>169</v>
+        <v>383</v>
       </c>
       <c r="G373" s="1" t="s">
-        <v>170</v>
+        <v>572</v>
       </c>
       <c r="H373" s="1" t="s">
-        <v>171</v>
+        <v>573</v>
       </c>
       <c r="I373" s="1" t="s">
-        <v>172</v>
+        <v>574</v>
       </c>
       <c r="J373" s="2" t="s">
         <v>29</v>
@@ -27467,10 +27482,10 @@
         <v>31</v>
       </c>
       <c r="N373" s="2" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="O373" s="2" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="P373" s="2" t="s">
         <v>33</v>
@@ -27482,7 +27497,7 @@
         <v>33</v>
       </c>
       <c r="S373" s="2" t="s">
-        <v>33</v>
+        <v>575</v>
       </c>
       <c r="T373" s="2" t="s">
         <v>33</v>
@@ -27505,22 +27520,22 @@
         <v>22</v>
       </c>
       <c r="D374" s="2" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="E374" s="2" t="s">
         <v>559</v>
       </c>
       <c r="F374" s="2" t="s">
-        <v>103</v>
+        <v>169</v>
       </c>
       <c r="G374" s="1" t="s">
-        <v>104</v>
+        <v>170</v>
       </c>
       <c r="H374" s="1" t="s">
-        <v>105</v>
+        <v>171</v>
       </c>
       <c r="I374" s="1" t="s">
-        <v>105</v>
+        <v>172</v>
       </c>
       <c r="J374" s="2" t="s">
         <v>29</v>
@@ -27535,10 +27550,10 @@
         <v>31</v>
       </c>
       <c r="N374" s="2" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="O374" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="P374" s="2" t="s">
         <v>33</v>
@@ -27573,60 +27588,128 @@
         <v>22</v>
       </c>
       <c r="D375" s="2" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="E375" s="2" t="s">
         <v>559</v>
       </c>
       <c r="F375" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="G375" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H375" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="I375" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="J375" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K375" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L375" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M375" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N375" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="O375" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="P375" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q375" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R375" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S375" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T375" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U375" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V375" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B376" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C376" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D376" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="E376" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="F376" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="G375" s="1" t="s">
+      <c r="G376" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="H375" s="1" t="s">
+      <c r="H376" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="I375" s="1" t="s">
+      <c r="I376" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="J375" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K375" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L375" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M375" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N375" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="O375" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="P375" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q375" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="R375" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="S375" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="T375" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U375" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="V375" s="2" t="s">
+      <c r="J376" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K376" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L376" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M376" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N376" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="O376" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="P376" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q376" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R376" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S376" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T376" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U376" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V376" s="2" t="s">
         <v>33</v>
       </c>
     </row>
